--- a/biology/Microbiologie/Liste_de_milieux_de_culture/Liste_de_milieux_de_culture.xlsx
+++ b/biology/Microbiologie/Liste_de_milieux_de_culture/Liste_de_milieux_de_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article contient une liste de milieux de culture employés en microbiologie. La liste est non exhaustive. Les mots « bouillon », « gélose » et « milieu » ne sont pas pris en compte dans le classement par ordre alphabétique.
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu ADH (arginine dihydrolase) : cf. milieu de Moeller
@@ -572,7 +586,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose Baird-Parker
@@ -616,7 +632,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose au cétrimide
@@ -668,7 +686,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose DCL (ou DCA, ou milieu de Hynes)
@@ -704,7 +724,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 eau peptonée
@@ -744,7 +766,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 bouillon Fraser
@@ -776,7 +800,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 bouillon glucosé tamponné (ou BGT)
@@ -809,7 +835,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose Hektoen
@@ -845,7 +873,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu King A
@@ -881,7 +911,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu lactose BCP : cf. milieu BCP
@@ -924,7 +956,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 bouillon M17
@@ -974,7 +1008,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 bouillon nitraté
@@ -1009,7 +1045,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose à l’œuf
@@ -1045,7 +1083,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose P
@@ -1084,7 +1124,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose R2A
@@ -1127,7 +1169,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose Sabouraud
@@ -1168,7 +1212,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu Tarshis
@@ -1213,7 +1259,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu urée tryptophane (ou urée indole)
@@ -1245,7 +1293,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose au vert brillant et au rouge de phénol : cf. milieu Kristensen
@@ -1283,7 +1333,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 milieu Wilkins Chalgren
@@ -1315,7 +1367,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 gélose XLD
